--- a/May/Othes/Price List Update_11.05.2018.xlsx
+++ b/May/Othes/Price List Update_11.05.2018.xlsx
@@ -508,7 +508,7 @@
       <family val="5"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -619,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -825,6 +831,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,7 +1141,7 @@
   <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K51"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1564,19 +1582,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="41">
-        <v>7490</v>
-      </c>
-      <c r="I12" s="42">
-        <v>7990</v>
-      </c>
-      <c r="J12" s="24">
+      <c r="H12" s="79">
+        <v>6530</v>
+      </c>
+      <c r="I12" s="80">
+        <v>6990</v>
+      </c>
+      <c r="J12" s="81">
         <v>120</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="81">
         <v>0</v>
       </c>
       <c r="L12" s="4"/>

--- a/May/Othes/Price List Update_11.05.2018.xlsx
+++ b/May/Othes/Price List Update_11.05.2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="115">
   <si>
     <t>B12i</t>
   </si>
@@ -359,12 +359,15 @@
   <si>
     <t>New</t>
   </si>
+  <si>
+    <t>Office : 01715-116767</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -545,8 +548,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="15"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +616,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -675,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -926,6 +956,39 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K50"/>
     </sheetView>
   </sheetViews>
@@ -1244,9 +1307,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A1" s="92" t="s">
-        <v>110</v>
-      </c>
+      <c r="A1" s="92"/>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
       <c r="D1" s="92"/>
@@ -1256,7 +1317,7 @@
       <c r="F1" s="89"/>
       <c r="G1" s="89"/>
       <c r="H1" s="90" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="91"/>
@@ -1301,9 +1362,7 @@
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
       <c r="F4" s="53"/>
-      <c r="G4" s="88" t="s">
-        <v>109</v>
-      </c>
+      <c r="G4" s="88"/>
       <c r="H4" s="88"/>
       <c r="I4" s="88"/>
       <c r="J4" s="88"/>
@@ -1422,17 +1481,17 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="97">
         <v>865</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="97">
         <v>925</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="15"/>
       <c r="G7" s="64" t="s">
         <v>34</v>
@@ -1557,17 +1616,17 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="97">
         <v>795</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="97">
         <v>865</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24">
+      <c r="D10" s="95"/>
+      <c r="E10" s="95">
         <v>10</v>
       </c>
       <c r="F10" s="15"/>
@@ -1698,17 +1757,17 @@
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="97">
         <v>900</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="97">
         <v>975</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="15"/>
       <c r="G13" s="64" t="s">
         <v>33</v>
@@ -1788,31 +1847,31 @@
       <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="97">
         <v>910</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="97">
         <v>980</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95">
         <v>10</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="94">
         <v>17790</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="94">
         <v>18990</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24">
+      <c r="J15" s="95"/>
+      <c r="K15" s="95">
         <v>300</v>
       </c>
       <c r="L15" s="4"/>
@@ -1890,17 +1949,17 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="94">
         <v>5570</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="94">
         <v>5990</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1978,17 +2037,17 @@
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="94">
         <v>5650</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="94">
         <v>6150</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24">
+      <c r="J19" s="95"/>
+      <c r="K19" s="95">
         <v>75</v>
       </c>
       <c r="L19" s="4"/>
@@ -2056,17 +2115,17 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="97">
         <v>1000</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="97">
         <v>1090</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24">
+      <c r="D21" s="95"/>
+      <c r="E21" s="95">
         <v>10</v>
       </c>
       <c r="F21" s="24"/>
@@ -2164,19 +2223,19 @@
         <v>20</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="94">
         <v>5560</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="94">
         <v>5990</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="95">
         <v>200</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="95">
         <v>100</v>
       </c>
       <c r="L23" s="4"/>
@@ -2197,33 +2256,33 @@
       <c r="AA23" s="4"/>
     </row>
     <row r="24" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="94">
         <v>1290</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="94">
         <v>1390</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="95">
         <v>100</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="95">
         <v>10</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="94">
         <v>6090</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="94">
         <v>6590</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24">
+      <c r="J24" s="95"/>
+      <c r="K24" s="95">
         <v>100</v>
       </c>
       <c r="L24" s="4"/>
@@ -2305,17 +2364,17 @@
         <v>10</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="97">
         <v>3630</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="97">
         <v>3890</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2424,31 +2483,31 @@
       <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="94">
         <v>1290</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="94">
         <v>1390</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24">
+      <c r="D29" s="95"/>
+      <c r="E29" s="95">
         <v>25</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="97">
         <v>5390</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="97">
         <v>5790</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24">
+      <c r="J29" s="95"/>
+      <c r="K29" s="95">
         <v>75</v>
       </c>
       <c r="L29" s="4"/>
@@ -2469,29 +2528,29 @@
       <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="94">
         <v>1225</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="94">
         <v>1325</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="94">
         <v>5740</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="94">
         <v>6190</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2555,31 +2614,31 @@
       <c r="AA31" s="4"/>
     </row>
     <row r="32" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="94">
         <v>1460</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="94">
         <v>1590</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24">
+      <c r="D32" s="95"/>
+      <c r="E32" s="95">
         <v>20</v>
       </c>
       <c r="F32" s="32"/>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="97">
         <v>4970</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="97">
         <v>5290</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24">
+      <c r="J32" s="95"/>
+      <c r="K32" s="95">
         <v>130</v>
       </c>
       <c r="L32" s="4"/>
@@ -2600,31 +2659,31 @@
       <c r="AA32" s="4"/>
     </row>
     <row r="33" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="94">
         <v>1470</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="94">
         <v>1590</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24">
+      <c r="D33" s="95"/>
+      <c r="E33" s="95">
         <v>60</v>
       </c>
       <c r="F33" s="33"/>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="101">
         <v>4015</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="101">
         <v>4390</v>
       </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="55"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="102"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2733,33 +2792,33 @@
       <c r="AA35" s="4"/>
     </row>
     <row r="36" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="94">
         <v>1100</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="94">
         <v>1199</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="95">
         <v>50</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="95">
         <v>20</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="64" t="s">
+      <c r="G36" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="94">
         <v>4620</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="94">
         <v>4999</v>
       </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24">
+      <c r="J36" s="95"/>
+      <c r="K36" s="95">
         <v>75</v>
       </c>
       <c r="L36" s="4"/>
@@ -2794,17 +2853,17 @@
         <v>20</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="64" t="s">
+      <c r="G37" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="41">
+      <c r="H37" s="97">
         <v>4520</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="97">
         <v>4899</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24">
+      <c r="J37" s="95"/>
+      <c r="K37" s="95">
         <v>50</v>
       </c>
       <c r="L37" s="4"/>
@@ -2870,16 +2929,16 @@
       <c r="AA38" s="4"/>
     </row>
     <row r="39" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="94">
         <v>1730</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="94">
         <v>1890</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="95"/>
       <c r="E39" s="24"/>
       <c r="F39" s="15"/>
       <c r="G39" s="64" t="s">
@@ -2927,19 +2986,19 @@
         <v>20</v>
       </c>
       <c r="F40" s="15"/>
-      <c r="G40" s="64" t="s">
+      <c r="G40" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="94">
         <v>12590</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="94">
         <v>13490</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="95">
         <v>350</v>
       </c>
-      <c r="K40" s="24"/>
+      <c r="K40" s="95"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -2972,17 +3031,17 @@
         <v>20</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="64" t="s">
+      <c r="G41" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="94">
         <v>12240</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="94">
         <v>12990</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24">
+      <c r="J41" s="95"/>
+      <c r="K41" s="95">
         <v>350</v>
       </c>
       <c r="L41" s="4"/>
@@ -3015,19 +3074,19 @@
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="94">
         <v>8270</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="94">
         <v>8990</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="95">
         <v>100</v>
       </c>
-      <c r="K42" s="24"/>
+      <c r="K42" s="95"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3091,31 +3150,31 @@
       <c r="AA43" s="4"/>
     </row>
     <row r="44" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="94">
         <v>1130</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="94">
         <v>1230</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24">
+      <c r="D44" s="95"/>
+      <c r="E44" s="95">
         <v>10</v>
       </c>
       <c r="F44" s="15"/>
-      <c r="G44" s="64" t="s">
+      <c r="G44" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="103">
         <v>10840</v>
       </c>
-      <c r="I44" s="45">
+      <c r="I44" s="103">
         <v>11990</v>
       </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24">
+      <c r="J44" s="95"/>
+      <c r="K44" s="95">
         <v>200</v>
       </c>
       <c r="L44" s="35"/>
@@ -3152,17 +3211,17 @@
         <v>10</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="64" t="s">
+      <c r="G45" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="103">
         <v>12490</v>
       </c>
-      <c r="I45" s="45">
+      <c r="I45" s="103">
         <v>13490</v>
       </c>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24">
+      <c r="J45" s="95"/>
+      <c r="K45" s="95">
         <v>300</v>
       </c>
       <c r="L45" s="35"/>
@@ -3183,19 +3242,19 @@
       <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="94">
         <v>1330</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="94">
         <v>1450</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="95">
         <v>100</v>
       </c>
-      <c r="E46" s="24"/>
+      <c r="E46" s="95"/>
       <c r="F46" s="32"/>
       <c r="G46" s="77" t="s">
         <v>111</v>
@@ -3349,17 +3408,17 @@
       <c r="AA49" s="4"/>
     </row>
     <row r="50" spans="1:27" ht="18.75" customHeight="1">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="94">
         <v>1890</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="94">
         <v>2090</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24">
+      <c r="D50" s="95"/>
+      <c r="E50" s="95">
         <v>50</v>
       </c>
       <c r="F50" s="31"/>
